--- a/inst/templates/BMLMConfiguration.xlsx
+++ b/inst/templates/BMLMConfiguration.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F726007-3CA9-41D5-9A99-DFCB1B60DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AB1A1-24CC-4DE8-8449-D91B7E5DDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterDefinition" sheetId="1" r:id="rId1"/>
     <sheet name="ParameterMappedPaths" sheetId="2" r:id="rId2"/>
-    <sheet name="OutputDefinitions" sheetId="4" r:id="rId3"/>
+    <sheet name="ModelError" sheetId="4" r:id="rId3"/>
     <sheet name="Prior" sheetId="5" r:id="rId4"/>
     <sheet name="IndividualStartValues" sheetId="6" r:id="rId5"/>
     <sheet name="Dictionary" sheetId="8" r:id="rId6"/>
@@ -37,43 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Katrin Coboeken</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5CDA42A3-F2A7-44A8-AB1F-879039337949}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Katrin Coboeken:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-if empty value is random
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -99,9 +64,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>ModelFile</t>
-  </si>
-  <si>
     <t>StartValue</t>
   </si>
   <si>
@@ -141,33 +103,15 @@
     <t>IndividualId</t>
   </si>
   <si>
-    <t>DataGroupId</t>
-  </si>
-  <si>
     <t>Covariate</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>StudyId</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>lognormal</t>
-  </si>
-  <si>
-    <t>uniform_log</t>
-  </si>
-  <si>
     <t>weibull</t>
   </si>
   <si>
@@ -231,9 +175,6 @@
     <t>path of all linked parameter</t>
   </si>
   <si>
-    <t>cooresponds to OutputPathId in Plots.xlsx</t>
-  </si>
-  <si>
     <t>Outputs with same ID are fitted with same Error</t>
   </si>
   <si>
@@ -244,13 +185,43 @@
   </si>
   <si>
     <t>name of hyper parameter</t>
+  </si>
+  <si>
+    <t>corresponds to OutputPathId in Plots.xlsx</t>
+  </si>
+  <si>
+    <t>if empty value is random</t>
+  </si>
+  <si>
+    <t>unif</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>lnorm</t>
+  </si>
+  <si>
+    <t>https://rdrr.io/r/stats/Distributions.html</t>
+  </si>
+  <si>
+    <t>info only, used is unit in ParameterDefinition</t>
+  </si>
+  <si>
+    <t>corresponds to observedData identifier</t>
+  </si>
+  <si>
+    <t>if empty all secnarios,where parameter is defined</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,25 +257,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,10 +340,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +656,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,13 +685,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -736,31 +703,31 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -769,12 +736,15 @@
       <c r="A6" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J1048576" xr:uid="{A2CF26A5-AD63-430B-A7C5-499218A8E047}">
-      <formula1>"WAHR,FALSCH"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{A2CF26A5-AD63-430B-A7C5-499218A8E047}">
+      <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{29AC1EB2-6BB0-459B-A3A4-E73A5BB2CF95}">
       <formula1>"global,individual"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{9A04136E-C0EC-45F5-9D09-6B63DD863FF1}">
+      <formula1>"Linear,Log"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,13 +753,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D231264C-513A-4EEE-B7F6-E0D27E0898AB}">
           <x14:formula1>
-            <xm:f>Dictionary!$E$2:$E$100</xm:f>
+            <xm:f>Dictionary!$A$2:$A$99</xm:f>
           </x14:formula1>
           <xm:sqref>D1 D3:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8523DBE-48E4-497E-B44D-09C3A80BB7B2}">
           <x14:formula1>
-            <xm:f>Dictionary!$F$2:$F$100</xm:f>
+            <xm:f>Dictionary!$B$2:$B$99</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -801,37 +771,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="3" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,7 +831,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,31 +845,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -902,17 +878,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F50E7E07-FA91-42A9-AA94-30167A8302C8}">
+          <x14:formula1>
+            <xm:f>Dictionary!$C$2:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B33C2231-6D17-452F-8382-7C044B45E76A}">
           <x14:formula1>
-            <xm:f>Dictionary!$A$2:$A$100</xm:f>
+            <xm:f>Dictionary!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F50E7E07-FA91-42A9-AA94-30167A8302C8}">
-          <x14:formula1>
-            <xm:f>Dictionary!$G$2:$G$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -922,10 +898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A1757-A0CB-4B01-B2BD-C1BD050CBD49}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,10 +909,10 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -944,54 +920,59 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1000,17 +981,23 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For logarithmic values use =LN(value)" sqref="J3:J1048576 H3:H1048576 H1 J1 L1 L3:L1048576" xr:uid="{390E3475-7DFE-42D5-BA4A-1953922D7FE9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For logarithmic values use =LN(value)" sqref="M1 K1 I1" xr:uid="{390E3475-7DFE-42D5-BA4A-1953922D7FE9}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{65FFCDEB-66B4-4CFC-8423-ABEF1C4F1896}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A37F50C-A007-49FF-B757-DF0F98DBBB1F}">
           <x14:formula1>
             <xm:f>ParameterDefinition!$A$2:$A$100</xm:f>
@@ -1019,9 +1006,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6B57C8D-8A89-46AA-9704-A83EF09234EC}">
           <x14:formula1>
-            <xm:f>Dictionary!$H$2:$H$20</xm:f>
+            <xm:f>Dictionary!$D$2:$D$19</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{60E9788E-2AC2-4087-B17D-0B62C737B4FA}">
+          <x14:formula1>
+            <xm:f>Dictionary!$B$2:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1030,55 +1023,70 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99E141-8486-4BC2-9102-3175390D9575}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99E141-8486-4BC2-9102-3175390D9575}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{341A5B9F-861C-4DA8-9395-C67673B9773A}">
           <x14:formula1>
             <xm:f>ParameterDefinition!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2EF4A3B-1093-41AA-82D6-CA6DAC784BDB}">
+          <x14:formula1>
+            <xm:f>Dictionary!$A$2:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1088,110 +1096,89 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D73471-D399-4720-AAC4-3C2243A31611}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>33</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="F1:H1048576" name="fixedKeywords"/>
+    <protectedRange sqref="B1:D1048576" name="fixedKeywords"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/templates/BMLMConfiguration.xlsx
+++ b/inst/templates/BMLMConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AB1A1-24CC-4DE8-8449-D91B7E5DDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005BE36-53A0-4400-A354-EEF3AF8BC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Covariate</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comment</t>
@@ -703,31 +700,31 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -773,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -791,21 +788,21 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -851,25 +848,25 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -920,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -929,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -956,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -982,7 +979,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="10"/>
     </row>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99E141-8486-4BC2-9102-3175390D9575}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,28 +1043,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -1115,65 +1112,65 @@
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/BMLMConfiguration.xlsx
+++ b/inst/templates/BMLMConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005BE36-53A0-4400-A354-EEF3AF8BC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839AC056-71D3-4D8D-9EDC-EDC60FD65981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>ErrorModel</t>
   </si>
   <si>
-    <t>Unit_of_distributed_Parameter</t>
-  </si>
-  <si>
     <t>P1_value</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>pois</t>
   </si>
   <si>
-    <t>relative</t>
-  </si>
-  <si>
     <t>absolute</t>
   </si>
   <si>
@@ -157,24 +151,15 @@
     <t>parameter identifier</t>
   </si>
   <si>
-    <t>distribution for individual</t>
-  </si>
-  <si>
     <t>covariate for individual</t>
   </si>
   <si>
-    <t>if TRUE, the fitted value is applied as factor to all mapped parameters</t>
-  </si>
-  <si>
     <t>global or individual</t>
   </si>
   <si>
     <t>path of all linked parameter</t>
   </si>
   <si>
-    <t>Outputs with same ID are fitted with same Error</t>
-  </si>
-  <si>
     <t>physiological lower bound, if empty = 0</t>
   </si>
   <si>
@@ -196,15 +181,6 @@
     <t>norm</t>
   </si>
   <si>
-    <t>lnorm</t>
-  </si>
-  <si>
-    <t>https://rdrr.io/r/stats/Distributions.html</t>
-  </si>
-  <si>
-    <t>info only, used is unit in ParameterDefinition</t>
-  </si>
-  <si>
     <t>corresponds to observedData identifier</t>
   </si>
   <si>
@@ -212,6 +188,67 @@
   </si>
   <si>
     <t>Scenarios</t>
+  </si>
+  <si>
+    <t>if TRUE (1), the fitted value is applied as factor to all mapped parameters</t>
+  </si>
+  <si>
+    <t>proportional</t>
+  </si>
+  <si>
+    <t>Outputs with same ID are fitted with same ModelError</t>
+  </si>
+  <si>
+    <t>parameter identifier and display name in reports</t>
+  </si>
+  <si>
+    <t>Name of first distribution parameter</t>
+  </si>
+  <si>
+    <t>Name of second distribution parameter</t>
+  </si>
+  <si>
+    <t>Name of third distribution parameter</t>
+  </si>
+  <si>
+    <t>Value of first distribution parameter</t>
+  </si>
+  <si>
+    <t>Value of second distribution parameter</t>
+  </si>
+  <si>
+    <t>Value of third distribution parameter</t>
+  </si>
+  <si>
+    <t>distribution for inividuals values (https://rdrr.io/r/stats/Distributions.html)</t>
+  </si>
+  <si>
+    <t>covariate for individualmode</t>
+  </si>
+  <si>
+    <t>lnorm_geomean</t>
+  </si>
+  <si>
+    <t>used as base for prior parameter and as limits for inidvidual startValues</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>if Log, value is transformed to logscale during optimization</t>
+  </si>
+  <si>
+    <t>Distribution of Individual Values</t>
+  </si>
+  <si>
+    <t>Prior Distribution</t>
+  </si>
+  <si>
+    <t>for hyper parameter, this unit refers to individual start values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rdrr.io/r/stats/Distributions.html
+</t>
   </si>
 </sst>
 </file>
@@ -262,10 +299,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -312,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,22 +369,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +723,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,8 +736,8 @@
     <col min="6" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -682,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -697,53 +767,63 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{A2CF26A5-AD63-430B-A7C5-499218A8E047}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{A2CF26A5-AD63-430B-A7C5-499218A8E047}">
       <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{29AC1EB2-6BB0-459B-A3A4-E73A5BB2CF95}">
       <formula1>"global,individual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{9A04136E-C0EC-45F5-9D09-6B63DD863FF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:J1048576" xr:uid="{9A04136E-C0EC-45F5-9D09-6B63DD863FF1}">
       <formula1>"Linear,Log"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://rdrr.io/r/stats/Distributions.html" xr:uid="{943418C2-A7CD-4C89-A9F9-4BB353F68B81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -752,13 +832,13 @@
           <x14:formula1>
             <xm:f>Dictionary!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>D1 D3:D1048576</xm:sqref>
+          <xm:sqref>D3:D1048576 D1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8523DBE-48E4-497E-B44D-09C3A80BB7B2}">
           <x14:formula1>
-            <xm:f>Dictionary!$B$2:$B$99</xm:f>
+            <xm:f>Dictionary!$B$3:$B$99</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
+          <xm:sqref>C4:C1048576 C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -778,6 +858,7 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -788,23 +869,23 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,7 +909,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,33 +923,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -895,106 +976,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A1757-A0CB-4B01-B2BD-C1BD050CBD49}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="12" t="s">
+      <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="N2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For logarithmic values use =LN(value)" sqref="M1 K1 I1" xr:uid="{390E3475-7DFE-42D5-BA4A-1953922D7FE9}"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For logarithmic values use =LN(value)" sqref="R1 P1 N1" xr:uid="{390E3475-7DFE-42D5-BA4A-1953922D7FE9}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576 I3:I1048576" xr:uid="{5FF5B789-96E5-4C36-B84B-68E206D88A24}">
+      <formula1>"Linear,Log"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{5AF9CF04-8B7C-43DA-8FA7-5158A1689516}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{65FFCDEB-66B4-4CFC-8423-ABEF1C4F1896}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{65FFCDEB-66B4-4CFC-8423-ABEF1C4F1896}"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://rdrr.io/r/stats/Distributions.html" xr:uid="{023294FE-E96C-44CE-8B42-DBAAC7D55F7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A37F50C-A007-49FF-B757-DF0F98DBBB1F}">
           <x14:formula1>
             <xm:f>ParameterDefinition!$A$2:$A$100</xm:f>
@@ -1011,7 +1142,13 @@
           <x14:formula1>
             <xm:f>Dictionary!$B$2:$B$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E1048576</xm:sqref>
+          <xm:sqref>L3:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B5A6B88-10C8-47A2-87BC-35209AD0827C}">
+          <x14:formula1>
+            <xm:f>Dictionary!$B$3:$B$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1021,54 +1158,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99E141-8486-4BC2-9102-3175390D9575}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
+      <c r="G2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{CF956F1C-6356-432E-B0F0-51D70762FCDD}">
+      <formula1>"Linear,Log"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1093,89 +1246,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D73471-D399-4720-AAC4-3C2243A31611}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B1:D1048576" name="fixedKeywords"/>
+    <protectedRange sqref="C1:D1048576 B1 B3:B1048576" name="fixedKeywords"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/templates/BMLMConfiguration.xlsx
+++ b/inst/templates/BMLMConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839AC056-71D3-4D8D-9EDC-EDC60FD65981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F742E36-0F85-40BF-81B1-F46FBDFF2B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParameterDefinition" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,38 +383,29 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,11 +781,11 @@
         <v>61</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="7" t="s">
         <v>65</v>
       </c>
@@ -836,7 +827,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8523DBE-48E4-497E-B44D-09C3A80BB7B2}">
           <x14:formula1>
-            <xm:f>Dictionary!$B$3:$B$99</xm:f>
+            <xm:f>Dictionary!$B$2:$B$99</xm:f>
           </x14:formula1>
           <xm:sqref>C4:C1048576 C3</xm:sqref>
         </x14:dataValidation>
@@ -978,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A1757-A0CB-4B01-B2BD-C1BD050CBD49}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,29 +986,29 @@
     <col min="12" max="12" width="28.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1026,31 +1017,31 @@
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1169,7 +1160,7 @@
     <col min="2" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,13 +1176,13 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1211,7 +1202,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="7"/>
@@ -1248,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D73471-D399-4720-AAC4-3C2243A31611}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
